--- a/Assessment 2/2-2_binarysearch.xlsx
+++ b/Assessment 2/2-2_binarysearch.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19001"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DDC_materials\12_DS\assessments\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Google Drive\filing_system_01\documents\education\software_development_year_02\01_data_structures\Assessment 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20475" windowHeight="10875"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -128,7 +128,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -466,11 +466,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13:G13"/>
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -825,6 +825,18 @@
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="H17:J17"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="H18:J18"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="H21:J21"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="H22:J22"/>
     <mergeCell ref="F19:G19"/>
     <mergeCell ref="H19:J19"/>
     <mergeCell ref="H7:J7"/>
@@ -841,18 +853,6 @@
     <mergeCell ref="F12:G12"/>
     <mergeCell ref="F13:G13"/>
     <mergeCell ref="H13:J13"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="H20:J20"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="H22:J22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Assessment 2/2-2_binarysearch.xlsx
+++ b/Assessment 2/2-2_binarysearch.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19001"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Google Drive\filing_system_01\documents\education\software_development_year_02\01_data_structures\Assessment 2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\software_development_year_2\01_data_structures\Assessment 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="40">
   <si>
     <t>index-&gt;</t>
   </si>
@@ -123,12 +123,33 @@
   </si>
   <si>
     <t>DataSet</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>Found so exit</t>
+  </si>
+  <si>
+    <t>Initialize variables</t>
+  </si>
+  <si>
+    <t>Right</t>
+  </si>
+  <si>
+    <t>Left</t>
+  </si>
+  <si>
+    <t>Condition false so exit</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -179,7 +200,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -187,6 +208,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -466,11 +488,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -620,11 +642,19 @@
       <c r="A7" t="s">
         <v>6</v>
       </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>15</v>
+      </c>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
+      <c r="H7" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
       <c r="R7" s="3" t="s">
         <v>16</v>
       </c>
@@ -633,9 +663,22 @@
       <c r="A8" t="s">
         <v>7</v>
       </c>
-      <c r="F8" s="4"/>
+      <c r="C8">
+        <v>9</v>
+      </c>
+      <c r="D8">
+        <v>15</v>
+      </c>
+      <c r="E8">
+        <v>8</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>33</v>
+      </c>
       <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
+      <c r="H8" s="4" t="s">
+        <v>37</v>
+      </c>
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
       <c r="R8" s="3" t="s">
@@ -646,9 +689,22 @@
       <c r="A9" t="s">
         <v>8</v>
       </c>
-      <c r="F9" s="4"/>
+      <c r="C9">
+        <v>9</v>
+      </c>
+      <c r="D9">
+        <v>11</v>
+      </c>
+      <c r="E9">
+        <v>12</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>33</v>
+      </c>
       <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
+      <c r="H9" s="4" t="s">
+        <v>38</v>
+      </c>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
       <c r="R9" s="3" t="s">
@@ -659,9 +715,16 @@
       <c r="A10" t="s">
         <v>9</v>
       </c>
-      <c r="F10" s="4"/>
+      <c r="E10">
+        <v>10</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>34</v>
+      </c>
       <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
+      <c r="H10" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
       <c r="R10" s="3" t="s">
@@ -745,6 +808,12 @@
       <c r="A17" t="s">
         <v>6</v>
       </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>15</v>
+      </c>
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
@@ -758,9 +827,22 @@
       <c r="A18" t="s">
         <v>7</v>
       </c>
-      <c r="F18" s="4"/>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>7</v>
+      </c>
+      <c r="E18">
+        <v>8</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>33</v>
+      </c>
       <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
+      <c r="H18" s="4" t="s">
+        <v>38</v>
+      </c>
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
       <c r="R18" s="3" t="s">
@@ -771,9 +853,22 @@
       <c r="A19" t="s">
         <v>8</v>
       </c>
-      <c r="F19" s="4"/>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>3</v>
+      </c>
+      <c r="E19">
+        <v>4</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>33</v>
+      </c>
       <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
+      <c r="H19" s="4" t="s">
+        <v>38</v>
+      </c>
       <c r="I19" s="4"/>
       <c r="J19" s="4"/>
       <c r="R19" s="3" t="s">
@@ -784,9 +879,22 @@
       <c r="A20" t="s">
         <v>9</v>
       </c>
-      <c r="F20" s="4"/>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>33</v>
+      </c>
       <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
+      <c r="H20" s="4" t="s">
+        <v>38</v>
+      </c>
       <c r="I20" s="4"/>
       <c r="J20" s="4"/>
       <c r="R20" s="3" t="s">
@@ -797,9 +905,22 @@
       <c r="A21" t="s">
         <v>10</v>
       </c>
-      <c r="F21" s="4"/>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>33</v>
+      </c>
       <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
+      <c r="H21" s="4" t="s">
+        <v>38</v>
+      </c>
       <c r="I21" s="4"/>
       <c r="J21" s="4"/>
     </row>
@@ -807,11 +928,24 @@
       <c r="A22" t="s">
         <v>11</v>
       </c>
-      <c r="F22" s="4"/>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>-1</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>33</v>
+      </c>
       <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
-      <c r="I22" s="4"/>
-      <c r="J22" s="4"/>
+      <c r="H22" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
@@ -824,7 +958,20 @@
       <c r="J23" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="28">
+  <mergeCells count="26">
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="H13:J13"/>
+    <mergeCell ref="H12:J12"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H8:J8"/>
+    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="H11:J11"/>
     <mergeCell ref="F17:G17"/>
     <mergeCell ref="H17:J17"/>
     <mergeCell ref="F18:G18"/>
@@ -836,23 +983,8 @@
     <mergeCell ref="F21:G21"/>
     <mergeCell ref="H21:J21"/>
     <mergeCell ref="F22:G22"/>
-    <mergeCell ref="H22:J22"/>
     <mergeCell ref="F19:G19"/>
     <mergeCell ref="H19:J19"/>
-    <mergeCell ref="H7:J7"/>
-    <mergeCell ref="H8:J8"/>
-    <mergeCell ref="H9:J9"/>
-    <mergeCell ref="H10:J10"/>
-    <mergeCell ref="H11:J11"/>
-    <mergeCell ref="H12:J12"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="H13:J13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
